--- a/DLKJ/DOC/Excel/账号表格.xlsx
+++ b/DLKJ/DOC/Excel/账号表格.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="24210" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Student" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -45,19 +45,325 @@
     <t>string</t>
   </si>
   <si>
-    <t>a</t>
+    <t>student1</t>
+  </si>
+  <si>
+    <t>passsword1</t>
   </si>
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>d</t>
+    <t>student2</t>
+  </si>
+  <si>
+    <t>passsword2</t>
+  </si>
+  <si>
+    <t>student3</t>
+  </si>
+  <si>
+    <t>passsword3</t>
+  </si>
+  <si>
+    <t>student4</t>
+  </si>
+  <si>
+    <t>passsword4</t>
+  </si>
+  <si>
+    <t>student5</t>
+  </si>
+  <si>
+    <t>passsword5</t>
+  </si>
+  <si>
+    <t>student6</t>
+  </si>
+  <si>
+    <t>passsword6</t>
+  </si>
+  <si>
+    <t>student7</t>
+  </si>
+  <si>
+    <t>passsword7</t>
+  </si>
+  <si>
+    <t>student8</t>
+  </si>
+  <si>
+    <t>passsword8</t>
+  </si>
+  <si>
+    <t>student9</t>
+  </si>
+  <si>
+    <t>passsword9</t>
+  </si>
+  <si>
+    <t>student10</t>
+  </si>
+  <si>
+    <t>passsword10</t>
+  </si>
+  <si>
+    <t>student11</t>
+  </si>
+  <si>
+    <t>passsword11</t>
+  </si>
+  <si>
+    <t>student12</t>
+  </si>
+  <si>
+    <t>passsword12</t>
+  </si>
+  <si>
+    <t>student13</t>
+  </si>
+  <si>
+    <t>passsword13</t>
+  </si>
+  <si>
+    <t>student14</t>
+  </si>
+  <si>
+    <t>passsword14</t>
+  </si>
+  <si>
+    <t>student15</t>
+  </si>
+  <si>
+    <t>passsword15</t>
+  </si>
+  <si>
+    <t>student16</t>
+  </si>
+  <si>
+    <t>passsword16</t>
+  </si>
+  <si>
+    <t>student17</t>
+  </si>
+  <si>
+    <t>passsword17</t>
+  </si>
+  <si>
+    <t>student18</t>
+  </si>
+  <si>
+    <t>passsword18</t>
+  </si>
+  <si>
+    <t>student19</t>
+  </si>
+  <si>
+    <t>passsword19</t>
+  </si>
+  <si>
+    <t>student20</t>
+  </si>
+  <si>
+    <t>passsword20</t>
+  </si>
+  <si>
+    <t>student21</t>
+  </si>
+  <si>
+    <t>passsword21</t>
+  </si>
+  <si>
+    <t>student22</t>
+  </si>
+  <si>
+    <t>passsword22</t>
+  </si>
+  <si>
+    <t>student23</t>
+  </si>
+  <si>
+    <t>passsword23</t>
+  </si>
+  <si>
+    <t>student24</t>
+  </si>
+  <si>
+    <t>passsword24</t>
+  </si>
+  <si>
+    <t>student25</t>
+  </si>
+  <si>
+    <t>passsword25</t>
+  </si>
+  <si>
+    <t>student26</t>
+  </si>
+  <si>
+    <t>passsword26</t>
+  </si>
+  <si>
+    <t>student27</t>
+  </si>
+  <si>
+    <t>passsword27</t>
+  </si>
+  <si>
+    <t>student28</t>
+  </si>
+  <si>
+    <t>passsword28</t>
+  </si>
+  <si>
+    <t>student29</t>
+  </si>
+  <si>
+    <t>passsword29</t>
+  </si>
+  <si>
+    <t>student30</t>
+  </si>
+  <si>
+    <t>passsword30</t>
+  </si>
+  <si>
+    <t>student31</t>
+  </si>
+  <si>
+    <t>passsword31</t>
+  </si>
+  <si>
+    <t>student32</t>
+  </si>
+  <si>
+    <t>passsword32</t>
+  </si>
+  <si>
+    <t>student33</t>
+  </si>
+  <si>
+    <t>passsword33</t>
+  </si>
+  <si>
+    <t>student34</t>
+  </si>
+  <si>
+    <t>passsword34</t>
+  </si>
+  <si>
+    <t>student35</t>
+  </si>
+  <si>
+    <t>passsword35</t>
+  </si>
+  <si>
+    <t>student36</t>
+  </si>
+  <si>
+    <t>passsword36</t>
+  </si>
+  <si>
+    <t>student37</t>
+  </si>
+  <si>
+    <t>passsword37</t>
+  </si>
+  <si>
+    <t>student38</t>
+  </si>
+  <si>
+    <t>passsword38</t>
+  </si>
+  <si>
+    <t>student39</t>
+  </si>
+  <si>
+    <t>passsword39</t>
+  </si>
+  <si>
+    <t>student40</t>
+  </si>
+  <si>
+    <t>passsword40</t>
+  </si>
+  <si>
+    <t>student41</t>
+  </si>
+  <si>
+    <t>passsword41</t>
+  </si>
+  <si>
+    <t>student42</t>
+  </si>
+  <si>
+    <t>passsword42</t>
+  </si>
+  <si>
+    <t>student43</t>
+  </si>
+  <si>
+    <t>passsword43</t>
+  </si>
+  <si>
+    <t>student44</t>
+  </si>
+  <si>
+    <t>passsword44</t>
+  </si>
+  <si>
+    <t>student45</t>
+  </si>
+  <si>
+    <t>passsword45</t>
+  </si>
+  <si>
+    <t>student46</t>
+  </si>
+  <si>
+    <t>passsword46</t>
+  </si>
+  <si>
+    <t>student47</t>
+  </si>
+  <si>
+    <t>passsword47</t>
+  </si>
+  <si>
+    <t>student48</t>
+  </si>
+  <si>
+    <t>passsword48</t>
+  </si>
+  <si>
+    <t>student49</t>
+  </si>
+  <si>
+    <t>passsword49</t>
+  </si>
+  <si>
+    <t>student50</t>
+  </si>
+  <si>
+    <t>passsword50</t>
+  </si>
+  <si>
+    <t>teacher1</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>teacher2</t>
+  </si>
+  <si>
+    <t>teacher3</t>
+  </si>
+  <si>
+    <t>teacher4</t>
+  </si>
+  <si>
+    <t>teacher5</t>
   </si>
   <si>
     <t>teacher</t>
@@ -69,9 +375,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,16 +395,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,7 +440,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -121,39 +448,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,25 +463,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -203,8 +487,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,6 +517,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -235,12 +541,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -253,13 +613,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -271,151 +667,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +735,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,22 +769,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,8 +777,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,6 +794,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +840,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +852,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,15 +1334,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="24.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4">
@@ -1085,152 +1392,770 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>2</v>
+      <c r="B6" t="s">
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7">
-        <v>3</v>
+      <c r="B7" t="s">
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>4</v>
+      <c r="B8" t="s">
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <v>5</v>
       </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>6</v>
       </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>7</v>
       </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>8</v>
       </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>9</v>
       </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>10</v>
       </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>11</v>
       </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>12</v>
       </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
         <v>13</v>
       </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
+      </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
         <v>14</v>
       </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
+      </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
         <v>15</v>
       </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>16</v>
       </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>19</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>27</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>28</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>29</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>41</v>
+      </c>
+      <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>42</v>
+      </c>
+      <c r="B46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>44</v>
+      </c>
+      <c r="B48" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>45</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>99</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>46</v>
+      </c>
+      <c r="B50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>47</v>
+      </c>
+      <c r="B51" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>48</v>
+      </c>
+      <c r="B52" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>50</v>
+      </c>
+      <c r="B54" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>51</v>
+      </c>
+      <c r="B55" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55">
+        <v>123</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56">
+        <v>123</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>53</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57">
+        <v>123</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>54</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58">
+        <v>123</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59">
+        <v>123</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1261,7 +2186,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="B3">
         <v>1234</v>
